--- a/02-output/wine_country_stats/Q2E_Canada.xlsx
+++ b/02-output/wine_country_stats/Q2E_Canada.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>British Columbia</t>
@@ -447,16 +447,15 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -530,25 +529,25 @@
         <v>32.39873417721519</v>
       </c>
       <c r="D2">
+        <v>14.9882926174044</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>14.9882926174044</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
       <c r="H2">
+        <v>36.75</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
         <v>30</v>
-      </c>
-      <c r="I2">
-        <v>36.75</v>
-      </c>
-      <c r="J2">
-        <v>120</v>
       </c>
       <c r="L2">
         <v>158</v>
@@ -557,25 +556,25 @@
         <v>89.73417721518987</v>
       </c>
       <c r="N2">
+        <v>2.067084230698494</v>
+      </c>
+      <c r="O2">
+        <v>82</v>
+      </c>
+      <c r="P2">
+        <v>88</v>
+      </c>
+      <c r="Q2">
         <v>90</v>
       </c>
-      <c r="O2">
-        <v>2.067084230698494</v>
-      </c>
-      <c r="P2">
-        <v>82</v>
-      </c>
-      <c r="Q2">
-        <v>88</v>
-      </c>
       <c r="R2">
+        <v>91</v>
+      </c>
+      <c r="S2">
+        <v>94</v>
+      </c>
+      <c r="T2">
         <v>90</v>
-      </c>
-      <c r="S2">
-        <v>91</v>
-      </c>
-      <c r="T2">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -589,25 +588,25 @@
         <v>41.25263157894737</v>
       </c>
       <c r="D3">
+        <v>24.8060426839796</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>24.8060426839796</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
       <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
         <v>30</v>
-      </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>95</v>
       </c>
       <c r="L3">
         <v>95</v>
@@ -616,25 +615,25 @@
         <v>88.78947368421052</v>
       </c>
       <c r="N3">
+        <v>2.782524251359993</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>87</v>
+      </c>
+      <c r="Q3">
         <v>89</v>
       </c>
-      <c r="O3">
-        <v>2.782524251359993</v>
-      </c>
-      <c r="P3">
-        <v>82</v>
-      </c>
-      <c r="Q3">
-        <v>87</v>
-      </c>
       <c r="R3">
+        <v>91</v>
+      </c>
+      <c r="S3">
+        <v>94</v>
+      </c>
+      <c r="T3">
         <v>89</v>
-      </c>
-      <c r="S3">
-        <v>91</v>
-      </c>
-      <c r="T3">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/wine_country_stats/Q2E_Canada.xlsx
+++ b/02-output/wine_country_stats/Q2E_Canada.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>Canada price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>Canada points points</t>
+    <t>Canada_priceprice</t>
+  </si>
+  <si>
+    <t>Canada_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,11 +417,10 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +430,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>253</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>35.72332015810277</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>89.3794466403162</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>19.69636905655891</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.400043917033408</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>120</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>94</v>
       </c>
     </row>
